--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Nombre</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>pass5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Daniel</t>
+  </si>
+  <si>
+    <t>usuario6@gmail.com</t>
+  </si>
+  <si>
+    <t>pass6</t>
   </si>
 </sst>
 </file>
@@ -690,7 +699,15 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="1"/>
@@ -714,6 +731,7 @@
     <hyperlink r:id="rId3" ref="B4"/>
     <hyperlink r:id="rId4" ref="B5"/>
     <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Nombre</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>pass6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amadeo Raul</t>
+  </si>
+  <si>
+    <t>usuario7@gmail.com</t>
+  </si>
+  <si>
+    <t>pass7</t>
   </si>
 </sst>
 </file>
@@ -710,7 +719,15 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="1"/>
@@ -732,6 +749,7 @@
     <hyperlink r:id="rId4" ref="B5"/>
     <hyperlink r:id="rId5" ref="B6"/>
     <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t>Nombre</t>
   </si>
@@ -27,67 +27,1069 @@
     <t>Contraseñas</t>
   </si>
   <si>
-    <t xml:space="preserve">Juan Gomez</t>
+    <t xml:space="preserve">ALEM SA</t>
+  </si>
+  <si>
+    <t>fordalem@hotmail.com</t>
+  </si>
+  <si>
+    <t>30-69847710-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTAMIRANO JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>rma.motors.17@gmail.com</t>
+  </si>
+  <si>
+    <t>20-39495845-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARNAUDO SERGIO MARCELO</t>
+  </si>
+  <si>
+    <t>multimarcaslasmalvinas@gmail.com</t>
+  </si>
+  <si>
+    <t>20-16123210-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOPARTES ARGENTINA SRL</t>
+  </si>
+  <si>
+    <t>autopartesargentina12@hotmail.com</t>
+  </si>
+  <si>
+    <t>30-71380860-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRERA CARLOS EZEQUIEL</t>
+  </si>
+  <si>
+    <t>luciano_anaya@yahoo.com</t>
+  </si>
+  <si>
+    <t>20-34908448-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BECHLER RODOLFO CARLOS</t>
+  </si>
+  <si>
+    <t>rodolfobechler@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-11975287-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEDOGNI CHRISTIAN MAURICIO</t>
+  </si>
+  <si>
+    <t>bedo-car@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-32457412-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERROCAL SRL</t>
+  </si>
+  <si>
+    <t>lukas-motors@hotmail.com</t>
+  </si>
+  <si>
+    <t>30-71772885-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERTOLOTTO GUSTAVO Y MARIMON ARIEL SH</t>
+  </si>
+  <si>
+    <t>elsignorepuestos@hotmail.com</t>
+  </si>
+  <si>
+    <t>30-71013582-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANGETTI DANIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>mx-motos@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-22161385-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONINO ALEJANDRA ELIZABETH</t>
+  </si>
+  <si>
+    <t>alebonino140340@gmail.com</t>
+  </si>
+  <si>
+    <t>27-22772226-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRESSAN HUGO ROGELIO</t>
+  </si>
+  <si>
+    <t>edicar_rep@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-13964832-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRESSAN MARCELA PATRICIA</t>
+  </si>
+  <si>
+    <t>repuestosencecar@gmail.com</t>
+  </si>
+  <si>
+    <t>27-20380427-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCANELLI EDUARDO ADRIAN</t>
+  </si>
+  <si>
+    <t>polyrepuestos@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>20-12872798-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRONSTEIN JUAN PABLO</t>
+  </si>
+  <si>
+    <t>egrepuestos@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-21902460-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYB SRL</t>
+  </si>
+  <si>
+    <t>byb.heras@gmail.com</t>
+  </si>
+  <si>
+    <t>33-66806693-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABANILLAS CRISTIAN GABRIEL</t>
+  </si>
+  <si>
+    <t>cristian-cabanillas@hotmail.com</t>
+  </si>
+  <si>
+    <t>23-29605716-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACERES JOSE GABRIEL</t>
+  </si>
+  <si>
+    <t>gabilangallego@gmail.com</t>
+  </si>
+  <si>
+    <t>20-40110296-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALOGRIAS IRENE BEATRIZ</t>
+  </si>
+  <si>
+    <t>irecalogrias@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>27-12350444-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDONA PE￑A RODRIGO</t>
+  </si>
+  <si>
+    <t>repcard@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-38332057-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRILLO ANALIA TERESA</t>
+  </si>
+  <si>
+    <t>analiacarrillo@hotmail.com</t>
+  </si>
+  <si>
+    <t>27-25717217-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRIZO GRISELDA BEATRIZ</t>
+  </si>
+  <si>
+    <t>chevromrepuestos@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>27-31040552-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARS BAPRO SAS</t>
+  </si>
+  <si>
+    <t>carsbapro@gmail.com</t>
+  </si>
+  <si>
+    <t>30-71856021-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO CRISTIAN SERGIO</t>
+  </si>
+  <si>
+    <t>fordnafa@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-22221723-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRERAS MAURICIO EMMANUEL</t>
+  </si>
+  <si>
+    <t>transmisiones_ac@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-31220856-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAMER SA</t>
+  </si>
+  <si>
+    <t>ezequielreyna87@gmail.com</t>
+  </si>
+  <si>
+    <t>30-71516819-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELDOTTO GABRIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>gabriel_deldotto@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-28271180-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMICHELIS AGUSTIN HERNAN</t>
+  </si>
+  <si>
+    <t>weinsmotos@gmail.com</t>
+  </si>
+  <si>
+    <t>20-34130835-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI TOMASO REPUESTOS SRL</t>
+  </si>
+  <si>
+    <t>ditomasorepuestos@gmail.com</t>
+  </si>
+  <si>
+    <t>30-71734966-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ SAMANTA ELIZABETH</t>
+  </si>
+  <si>
+    <t>samantaelizabeth@gmail.com</t>
+  </si>
+  <si>
+    <t>23-30656406-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUIDORA GMG SRL</t>
+  </si>
+  <si>
+    <t>distribuidoragmg@hotmail.com</t>
+  </si>
+  <si>
+    <t>30-71472549-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL OVALO REPUESTOS SRL</t>
+  </si>
+  <si>
+    <t>elovalorepuestos@gmail.com</t>
+  </si>
+  <si>
+    <t>30-71188139-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESMA SA</t>
+  </si>
+  <si>
+    <t>repuestos@esma-sa.com.ar</t>
+  </si>
+  <si>
+    <t>30-53350893-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPINDOLA JOSE LUIS</t>
+  </si>
+  <si>
+    <t>repuestosgcb.donato@gmail.com</t>
+  </si>
+  <si>
+    <t>20-24841811-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARIAS MARTIN GUSTAVO</t>
+  </si>
+  <si>
+    <t>martingustavofarias@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-22370651-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELTRIN JUAN GABRIEL</t>
+  </si>
+  <si>
+    <t>fysrepuestos779@gmail.com</t>
+  </si>
+  <si>
+    <t>20-31928420-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRENOS BEAN SRL</t>
+  </si>
+  <si>
+    <t>frenosbean@hotmail.com</t>
+  </si>
+  <si>
+    <t>30-71564989-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRENOSUR SRL</t>
+  </si>
+  <si>
+    <t>frenosur@hotmail.com</t>
+  </si>
+  <si>
+    <t>33-71499135-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALAN EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>20-11978114-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANLY AGUSTIN</t>
+  </si>
+  <si>
+    <t>planetachevrolet@hotmail.com.ar</t>
+  </si>
+  <si>
+    <t>20-24268249-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARRIDO OSCAR</t>
+  </si>
+  <si>
+    <t>oscarggarido@gmail.com</t>
+  </si>
+  <si>
+    <t>20-17626616-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERBAUDO ERICA LUISA</t>
+  </si>
+  <si>
+    <t>caminosagustin1@gmail.com</t>
+  </si>
+  <si>
+    <t>27-22564756-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIUNCHIGLIA MARCELO DANIEL</t>
+  </si>
+  <si>
+    <t>repuestosgiunchigliasa@hotmail.com</t>
+  </si>
+  <si>
+    <t>23-18385893-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNC DE LA VILLA SRL</t>
+  </si>
+  <si>
+    <t>30-70836460-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOMEZ ORDAZZO LUCIO MAXIMILIANO</t>
+  </si>
+  <si>
+    <t>inye-cor@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-33975215-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASSINI HNOS SRL</t>
+  </si>
+  <si>
+    <t>adm.repuestosavenida@gmail.com</t>
+  </si>
+  <si>
+    <t>30-71629067-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUNTER ROBERTO RAMON</t>
+  </si>
+  <si>
+    <t>20-22073279-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ CHRISTIAN MARCELO</t>
+  </si>
+  <si>
+    <t>christiangutierrez1176@gmail.com</t>
+  </si>
+  <si>
+    <t>20-25247114-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ LUIS RAMON</t>
+  </si>
+  <si>
+    <t>lramong73@gmail.com</t>
+  </si>
+  <si>
+    <t>20-23197936-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA FABIO ARMANDO</t>
+  </si>
+  <si>
+    <t>labombadeaguacba@gmail.com</t>
+  </si>
+  <si>
+    <t>20-20786356-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONGN MONICA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>femamotor@hotmail.com</t>
+  </si>
+  <si>
+    <t>27-21393364-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONORES YOHANA BEATRIZ</t>
+  </si>
+  <si>
+    <t>signoretdeker@gmail.com</t>
+  </si>
+  <si>
+    <t>27-35054764-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBA￑EZ DANIEL GERARDO</t>
+  </si>
+  <si>
+    <t>gerardoibanez1973@gmail.com</t>
+  </si>
+  <si>
+    <t>23-23197582-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERAUTOPARTES SAS</t>
+  </si>
+  <si>
+    <t>interautopartes.elporton@gmail.com</t>
+  </si>
+  <si>
+    <t>30-71688462-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNATIONAL ENGINE SRL</t>
+  </si>
+  <si>
+    <t>internacionalengine@gmail.com</t>
+  </si>
+  <si>
+    <t>30-71818917-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN RAFAEL PEDRO</t>
+  </si>
+  <si>
+    <t>repuestoselatlas4@gmail.com</t>
+  </si>
+  <si>
+    <t>20-06134621-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA CASA DEL ARO-CBA SRL</t>
+  </si>
+  <si>
+    <t>lacasadelarocordoba@hotmail.com</t>
+  </si>
+  <si>
+    <t>30-71454427-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ ENRIQUE OMAR</t>
+  </si>
+  <si>
+    <t>enriquezepol73@gmail.com</t>
+  </si>
+  <si>
+    <t>20-23194152-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANO ARLES MARTIN OCTAVIO</t>
+  </si>
+  <si>
+    <t>arlesmm@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-22795801-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARON MARCELO GABRIEL</t>
+  </si>
+  <si>
+    <t>chevro_mar@outlook.com</t>
+  </si>
+  <si>
+    <t>20-18153670-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELLOTTO EDUARDO ALBERTO</t>
+  </si>
+  <si>
+    <t>23-12612959-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN ESTEBAN ANGEL</t>
+  </si>
+  <si>
+    <t>emartin@arnet.com.ar</t>
+  </si>
+  <si>
+    <t>20-10545294-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ MIGUEL DEL VALLE</t>
+  </si>
+  <si>
+    <t>miguelmartinez7949@gmail.com</t>
+  </si>
+  <si>
+    <t>23-26087949-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINUZZI ARIEL OSCAR</t>
+  </si>
+  <si>
+    <t>compras@riopeugeot.com.ar</t>
+  </si>
+  <si>
+    <t>20-25267043-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINUZZI GABRIELA DEL MILAGRO</t>
+  </si>
+  <si>
+    <t>gabi.martinuzzi@gmail.com</t>
+  </si>
+  <si>
+    <t>27-28429714-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARUSICH JORGE OSCAR</t>
+  </si>
+  <si>
+    <t>total-repuestos@outlook.com</t>
+  </si>
+  <si>
+    <t>20-14562856-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODENA SUD SRL</t>
+  </si>
+  <si>
+    <t>modenasud@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>30-70828637-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORANDUZZO DANIEL LEONARDO</t>
+  </si>
+  <si>
+    <t>tatihorihuela@gmail.com</t>
+  </si>
+  <si>
+    <t>23-24368331-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NU￑EZ VICTOR HERNAN</t>
+  </si>
+  <si>
+    <t>peugeot.norte2715@gmail.com</t>
+  </si>
+  <si>
+    <t>20-23796103-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLMEDO JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>potenciafiat@hotmail.com.ar</t>
+  </si>
+  <si>
+    <t>20-13279479-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLMOS SILVIO MARIANO</t>
+  </si>
+  <si>
+    <t>cordobamotor@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>20-22772452-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTEGA JUAN JOSE</t>
+  </si>
+  <si>
+    <t>elpalaciodelmotor@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-29606134-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTIZ RODRIGO JAVIER</t>
+  </si>
+  <si>
+    <t>rodrigojavierortiz@gmail.com</t>
+  </si>
+  <si>
+    <t>20-34908163-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGLIERO JUAN LUDOVICO</t>
+  </si>
+  <si>
+    <t>rcrepuestoscordoba@gmail.com</t>
+  </si>
+  <si>
+    <t>20-07984473-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAZ MAXIMILIANO NICOLAS</t>
+  </si>
+  <si>
+    <t>maximilianopaz92@gmail.com</t>
+  </si>
+  <si>
+    <t>20-36432320-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREGO DE LA TORRE MARCOS ARIEL</t>
+  </si>
+  <si>
+    <t>marcosperego@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-26087438-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREYRA FRANCISCO BENITO</t>
+  </si>
+  <si>
+    <t>franciscodaytona@hotmail.com</t>
+  </si>
+  <si>
+    <t>23-07978262-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ ALVAREZ MATIAS NICOLAS</t>
+  </si>
+  <si>
+    <t>franco_cba45@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-31921142-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ VILLALOBO FERNANDO JOSE</t>
+  </si>
+  <si>
+    <t>yadarepuestosmotor@gmail.com</t>
+  </si>
+  <si>
+    <t>20-25858003-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETRINI LUIS DAVID</t>
+  </si>
+  <si>
+    <t>scioli_bike@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-31217592-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEUCOR REPUESTOS SA</t>
+  </si>
+  <si>
+    <t>ventas@peucor.com.ar</t>
+  </si>
+  <si>
+    <t>30-71605954-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFULLER EDUARDO DANIEL</t>
+  </si>
+  <si>
+    <t>autopartesfw@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-20532230-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIZICHINI ANTONIO EUGENIO</t>
+  </si>
+  <si>
+    <t>rocainyeccion@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-25919458-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI￑EIRO EZEQUIEL ENRIQUE</t>
+  </si>
+  <si>
+    <t>ezequielenripi03@gmail.com</t>
+  </si>
+  <si>
+    <t>24-25344884-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI￑EIRO MARIANA CAROLINA</t>
+  </si>
+  <si>
+    <t>maro_508@hotmail.com</t>
+  </si>
+  <si>
+    <t>27-28851496-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEVEDO EDUARDO FRANCISCO</t>
+  </si>
+  <si>
+    <t>ncmrep@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>20-12614129-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTANA JULIO JORGE</t>
+  </si>
+  <si>
+    <t>quintana_repuestos@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-12564774-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUI￑ONES RAMON CESAR</t>
+  </si>
+  <si>
+    <t>ramonautopartes@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-13821187-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIRES CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>20-31356919-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAVINALE FABIAN</t>
+  </si>
+  <si>
+    <t>chevroletruta9@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-20073615-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECTIFICACIONES Y REPUESTOS SAS</t>
+  </si>
+  <si>
+    <t>repuver@hotmail.com</t>
+  </si>
+  <si>
+    <t>30-71707114-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECTISUR SRL</t>
+  </si>
+  <si>
+    <t>rectisurmotores@gmail.com</t>
+  </si>
+  <si>
+    <t>30-64011770-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPUESTOS MORDINI SAS</t>
+  </si>
+  <si>
+    <t>mordinirepuestos@outlook.com</t>
+  </si>
+  <si>
+    <t>30-71758845-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPUESTOS PERALTA PORCEL SA</t>
+  </si>
+  <si>
+    <t>sistema@peraltaporcel.com</t>
+  </si>
+  <si>
+    <t>30-70872883-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RERIANI LAURA JOSEFINA</t>
+  </si>
+  <si>
+    <t>laurajreriani@hotmail.com</t>
+  </si>
+  <si>
+    <t>27-16947353-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIOS ANTONIO VICTOR</t>
+  </si>
+  <si>
+    <t>riosmotor1@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-07799510-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIVAROLA DANIEL JOSE OSCAR</t>
+  </si>
+  <si>
+    <t>venetorepuestos@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-18018257-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLDAN MARCOS DAVID</t>
+  </si>
+  <si>
+    <t>mariscalrepuestos@gmail.com</t>
+  </si>
+  <si>
+    <t>20-36232064-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERA GIULIANO MARTIN</t>
+  </si>
+  <si>
+    <t>repuestosromera@gmail.com</t>
+  </si>
+  <si>
+    <t>20-38500752-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBIO LUCAS MATIAS</t>
+  </si>
+  <si>
+    <t>luppialem_repuestos@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>20-25268661-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBIO RAMIRO</t>
+  </si>
+  <si>
+    <t>lupirenault1@gmail.com</t>
+  </si>
+  <si>
+    <t>20-28653546-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUSSI NICOLAS MIGUEL</t>
+  </si>
+  <si>
+    <t>enssirepuestos@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-25269210-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMARA JUAN ESTEBAN</t>
+  </si>
+  <si>
+    <t>20-28681778-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ LUCIANO ANDRES</t>
+  </si>
+  <si>
+    <t>cuatrolatasrepuestosrenault@gmail.com</t>
+  </si>
+  <si>
+    <t>20-27603319-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCATTOLINI JOSE LUIS</t>
+  </si>
+  <si>
+    <t>francoscattolinigreco@gmail.com</t>
+  </si>
+  <si>
+    <t>20-14582980-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVESTRE JULIO CESAR CEFERINO</t>
+  </si>
+  <si>
+    <t>montecarlorepuestos@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-18441449-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVESTRI GABRIEL CLEMENTE</t>
+  </si>
+  <si>
+    <t>gabrielsilvestri@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-17003386-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLIS FABIO ANDRES</t>
+  </si>
+  <si>
+    <t>fabioasolis@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-24726597-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLIS WALTER JAVIER</t>
+  </si>
+  <si>
+    <t>motorboxrep@hotmail.com</t>
+  </si>
+  <si>
+    <t>23-17629494-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORIA PABLO DANTE</t>
+  </si>
+  <si>
+    <t>psoria@live.com.ar</t>
+  </si>
+  <si>
+    <t>20-12695396-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAPIA RUBEN ALFREDO</t>
+  </si>
+  <si>
+    <t>mancurepuestos@gmail.com</t>
+  </si>
+  <si>
+    <t>20-16229487-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE DOCTOR CARS SRL</t>
+  </si>
+  <si>
+    <t>thedoctorcarssrl@hotmail.com</t>
+  </si>
+  <si>
+    <t>30-71555424-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALDEZ SERGIO EMANUEL</t>
+  </si>
+  <si>
+    <t>emma.valdez10@gmail.com</t>
+  </si>
+  <si>
+    <t>20-39080053-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALENTINO HUMBERTO SALVADOR</t>
+  </si>
+  <si>
+    <t>autopartesalem@gmail.com</t>
+  </si>
+  <si>
+    <t>20-10377589-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEGA JORGE ANIBAL</t>
+  </si>
+  <si>
+    <t>vegajorge2020@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-24713332-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELAZQUEZ JUAN JOSE Y SILVIO FRANCISCO SH</t>
+  </si>
+  <si>
+    <t>repnorte@yahoo.com</t>
+  </si>
+  <si>
+    <t>30-71020525-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YBARRA IVAN LUDOVICO</t>
+  </si>
+  <si>
+    <t>puntomotorivan@hotmail.com</t>
+  </si>
+  <si>
+    <t>20-27655680-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMARRE￑O RAMIRO JOSE CARLOS</t>
+  </si>
+  <si>
+    <t>gzparts2020@gmail.com</t>
+  </si>
+  <si>
+    <t>20-29091909-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMUDIO BENJAMIN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>benjaminzamu@gmail.com</t>
+  </si>
+  <si>
+    <t>23-33699806-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUEBA DE USUARIO</t>
   </si>
   <si>
     <t>usuario1@gmail.com</t>
   </si>
   <si>
     <t>pass1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Perez</t>
-  </si>
-  <si>
-    <t>usuario2@gmail.com</t>
-  </si>
-  <si>
-    <t>pass2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Sanchez</t>
-  </si>
-  <si>
-    <t>usuario3@gmail.com</t>
-  </si>
-  <si>
-    <t>pass3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amadeo Gonzalez</t>
-  </si>
-  <si>
-    <t>usuario4@gmail.com</t>
-  </si>
-  <si>
-    <t>pass4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marin Espindola</t>
-  </si>
-  <si>
-    <t>usuario5@gmail.com</t>
-  </si>
-  <si>
-    <t>pass5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Daniel</t>
-  </si>
-  <si>
-    <t>usuario6@gmail.com</t>
-  </si>
-  <si>
-    <t>pass6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amadeo Raul</t>
-  </si>
-  <si>
-    <t>usuario7@gmail.com</t>
-  </si>
-  <si>
-    <t>pass7</t>
   </si>
 </sst>
 </file>
@@ -128,8 +1130,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -630,13 +1635,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A107" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.28125"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="40.421875"/>
     <col customWidth="1" min="2" max="2" width="33.00390625"/>
     <col customWidth="1" min="3" max="3" width="17.421875"/>
   </cols>
@@ -653,10 +1658,10 @@
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -664,54 +1669,54 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -719,10 +1724,10 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
@@ -730,16 +1735,1247 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B91" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B93" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B94" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B96" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B97" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B100" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B101" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B102" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B105" t="s">
+        <v>308</v>
+      </c>
+      <c r="C105" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B106" t="s">
+        <v>311</v>
+      </c>
+      <c r="C106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C108" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B109" t="s">
+        <v>320</v>
+      </c>
+      <c r="C109" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B110" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B111" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B112" t="s">
+        <v>329</v>
+      </c>
+      <c r="C112" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B113" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B114" t="s">
+        <v>335</v>
+      </c>
+      <c r="C114" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B116" t="s">
+        <v>341</v>
+      </c>
+      <c r="C116" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B117" t="s">
+        <v>344</v>
+      </c>
+      <c r="C117" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="A118" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B118" t="s">
+        <v>347</v>
+      </c>
+      <c r="C118" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B119" t="s">
+        <v>350</v>
+      </c>
+      <c r="C119" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B120" t="s">
+        <v>353</v>
+      </c>
+      <c r="C120" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="A121" t="s">
+        <v>355</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C121" t="s">
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -750,6 +2986,7 @@
     <hyperlink r:id="rId5" ref="B6"/>
     <hyperlink r:id="rId6" ref="B7"/>
     <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId1" ref="B121"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -1635,7 +1635,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2222,7 +2222,7 @@
       <c r="A53" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C53" t="s">
@@ -2233,7 +2233,7 @@
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C54" t="s">
@@ -2959,7 +2959,7 @@
       <c r="A120" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>353</v>
       </c>
       <c r="C120" t="s">
@@ -2986,6 +2986,9 @@
     <hyperlink r:id="rId5" ref="B6"/>
     <hyperlink r:id="rId6" ref="B7"/>
     <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B53"/>
+    <hyperlink r:id="rId9" ref="B54"/>
+    <hyperlink r:id="rId10" ref="B120"/>
     <hyperlink r:id="rId1" ref="B121"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
 </workbook>
 </file>
 

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -486,7 +489,7 @@
     <t>27-35054764-4</t>
   </si>
   <si>
-    <t xml:space="preserve">IBA￑EZ DANIEL GERARDO</t>
+    <t xml:space="preserve">IBAÑEZ DANIEL GERARDO</t>
   </si>
   <si>
     <t>gerardoibanez1973@gmail.com</t>
@@ -762,7 +765,7 @@
     <t>20-25919458-0</t>
   </si>
   <si>
-    <t xml:space="preserve">PI￑EIRO EZEQUIEL ENRIQUE</t>
+    <t xml:space="preserve">PIÑEIRO EZEQUIEL ENRIQUE</t>
   </si>
   <si>
     <t>ezequielenripi03@gmail.com</t>
@@ -771,7 +774,7 @@
     <t>24-25344884-5</t>
   </si>
   <si>
-    <t xml:space="preserve">PI￑EIRO MARIANA CAROLINA</t>
+    <t xml:space="preserve">PIÑEIRO MARIANA CAROLINA</t>
   </si>
   <si>
     <t>maro_508@hotmail.com</t>
@@ -1127,13 +1130,16 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1632,7 +1638,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2227,7 +2233,7 @@
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2568,7 +2574,7 @@
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B85" t="s">
@@ -2579,7 +2585,7 @@
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B86" t="s">

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t>Nombre</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Contraseñas</t>
   </si>
   <si>
+    <t>Descuento</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALEM SA</t>
   </si>
   <si>
@@ -198,7 +201,7 @@
     <t>27-12350444-0</t>
   </si>
   <si>
-    <t xml:space="preserve">CARDONA PE￑A RODRIGO</t>
+    <t xml:space="preserve">CARDONA PEÑA RODRIGO</t>
   </si>
   <si>
     <t>repcard@hotmail.com</t>
@@ -1083,13 +1086,49 @@
     <t>23-33699806-9</t>
   </si>
   <si>
-    <t xml:space="preserve">PRUEBA DE USUARIO</t>
-  </si>
-  <si>
-    <t>usuario1@gmail.com</t>
-  </si>
-  <si>
-    <t>pass1</t>
+    <t xml:space="preserve">PRUEBA DE USUARIO 42</t>
+  </si>
+  <si>
+    <t>usuario42@gmail.com</t>
+  </si>
+  <si>
+    <t>pass42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUEBA DE USUARIO 40</t>
+  </si>
+  <si>
+    <t>usuario40@gmail.com</t>
+  </si>
+  <si>
+    <t>pass40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUEBA DE USUARIO 38</t>
+  </si>
+  <si>
+    <t>usuario38@gmail.com</t>
+  </si>
+  <si>
+    <t>pass38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUEBA DE USUARIO 35</t>
+  </si>
+  <si>
+    <t>usuario35@gmail.com</t>
+  </si>
+  <si>
+    <t>pass35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUEBA DE USUARIO 30</t>
+  </si>
+  <si>
+    <t>usuario30@gmail.com</t>
+  </si>
+  <si>
+    <t>pass30</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -1140,6 +1179,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1638,7 +1678,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1647,6 +1687,7 @@
     <col bestFit="1" customWidth="1" min="1" max="1" width="40.421875"/>
     <col customWidth="1" min="2" max="2" width="33.00390625"/>
     <col customWidth="1" min="3" max="3" width="17.421875"/>
+    <col customWidth="1" min="4" max="4" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1659,1325 +1700,1744 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D16" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D17" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D18" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
+      <c r="A21" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="D28" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="D29" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D33" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="D34" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D35" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="D36" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D38" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="D46" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="D51" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="4" t="s">
-        <v>157</v>
+      <c r="A54" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="D55" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="D57" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="D58" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="D59" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D60" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="D61" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="D62" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="D63" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="D64" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="D65" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="D66" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D67" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="D68" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="D69" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="D70" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="D71" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="D72" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="D73" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="D74" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="D75" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="D76" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="D77" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="D78" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="D79" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="D80" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="D81" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="D82" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="D83" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="D84" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="4" t="s">
-        <v>249</v>
+      <c r="A85" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="D85" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="4" t="s">
-        <v>252</v>
+      <c r="A86" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="D86" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="D87" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="D88" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="D89" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="D90" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="D91" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C92" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="D92" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="D93" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C94" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="D94" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C95" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="D95" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="D96" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="D97" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="D98" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="D99" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="D100" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="101" ht="14.25">
       <c r="A101" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C101" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="D101" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="D102" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C103" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="D103" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="D104" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B105" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C105" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="D105" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B106" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C106" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="D106" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C107" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="D107" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C108" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="D108" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B109" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C109" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="D109" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B110" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C110" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="D110" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B111" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C111" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="D111" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="D112" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="113" ht="14.25">
       <c r="A113" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="D113" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="114" ht="14.25">
       <c r="A114" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B114" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="D114" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="115" ht="14.25">
       <c r="A115" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B115" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C115" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="D115" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="116" ht="14.25">
       <c r="A116" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C116" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="D116" s="4">
+        <v>43.740000000000002</v>
       </c>
     </row>
     <row r="117" ht="14.25">
       <c r="A117" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B117" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C117" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="D117" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="118" ht="14.25">
       <c r="A118" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B118" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C118" t="s">
-        <v>348</v>
+        <v>349</v>
+      </c>
+      <c r="D118" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="119" ht="14.25">
       <c r="A119" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B119" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C119" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="D119" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="D120" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="121" ht="14.25">
       <c r="A121" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="D121">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D122">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="A123" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D123">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="A124" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D124">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="A125" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D125">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +3452,11 @@
     <hyperlink r:id="rId8" ref="B53"/>
     <hyperlink r:id="rId9" ref="B54"/>
     <hyperlink r:id="rId10" ref="B120"/>
-    <hyperlink r:id="rId1" ref="B121"/>
+    <hyperlink r:id="rId11" ref="B121"/>
+    <hyperlink r:id="rId12" ref="B122"/>
+    <hyperlink r:id="rId13" ref="B123"/>
+    <hyperlink r:id="rId14" ref="B124"/>
+    <hyperlink r:id="rId15" ref="B125"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -1169,16 +1169,12 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1971,7 +1967,7 @@
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B21" t="s">
@@ -2184,7 +2180,7 @@
       <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C36" t="s">
@@ -3310,7 +3306,7 @@
       <c r="C116" t="s">
         <v>343</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="1">
         <v>43.740000000000002</v>
       </c>
     </row>
@@ -3385,13 +3381,13 @@
       </c>
     </row>
     <row r="122" ht="14.25">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="3" t="s">
         <v>361</v>
       </c>
       <c r="D122">
@@ -3399,13 +3395,13 @@
       </c>
     </row>
     <row r="123" ht="14.25">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="3" t="s">
         <v>364</v>
       </c>
       <c r="D123">
@@ -3413,13 +3409,13 @@
       </c>
     </row>
     <row r="124" ht="14.25">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="3" t="s">
         <v>367</v>
       </c>
       <c r="D124">
@@ -3427,13 +3423,13 @@
       </c>
     </row>
     <row r="125" ht="14.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="3" t="s">
         <v>368</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="3" t="s">
         <v>370</v>
       </c>
       <c r="D125">
@@ -3449,14 +3445,15 @@
     <hyperlink r:id="rId5" ref="B6"/>
     <hyperlink r:id="rId6" ref="B7"/>
     <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B53"/>
-    <hyperlink r:id="rId9" ref="B54"/>
-    <hyperlink r:id="rId10" ref="B120"/>
-    <hyperlink r:id="rId11" ref="B121"/>
-    <hyperlink r:id="rId12" ref="B122"/>
-    <hyperlink r:id="rId13" ref="B123"/>
-    <hyperlink r:id="rId14" ref="B124"/>
-    <hyperlink r:id="rId15" ref="B125"/>
+    <hyperlink r:id="rId8" ref="B36"/>
+    <hyperlink r:id="rId9" ref="B53"/>
+    <hyperlink r:id="rId10" ref="B54"/>
+    <hyperlink r:id="rId11" ref="B120"/>
+    <hyperlink r:id="rId12" ref="B121"/>
+    <hyperlink r:id="rId13" ref="B122"/>
+    <hyperlink r:id="rId14" ref="B123"/>
+    <hyperlink r:id="rId15" ref="B124"/>
+    <hyperlink r:id="rId16" ref="B125"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="527">
   <si>
     <t>Nombre</t>
   </si>
@@ -1570,6 +1570,33 @@
   </si>
   <si>
     <t>20-46125195-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO 30</t>
+  </si>
+  <si>
+    <t>usuario30@gmail.com</t>
+  </si>
+  <si>
+    <t>pass30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO 35</t>
+  </si>
+  <si>
+    <t>pass35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO 40</t>
+  </si>
+  <si>
+    <t>pass40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO 42</t>
+  </si>
+  <si>
+    <t>pass42</t>
   </si>
 </sst>
 </file>
@@ -1579,12 +1606,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00.0\,\7\4"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1607,12 +1640,20 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2111,7 +2152,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A166" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2141,10 +2182,10 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
@@ -2155,7 +2196,7 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2169,7 +2210,7 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2183,7 +2224,7 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2197,7 +2238,7 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2225,7 +2266,7 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2791,7 +2832,7 @@
       <c r="C48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>43</v>
       </c>
     </row>
@@ -3065,10 +3106,10 @@
       <c r="A68" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D68" s="1">
@@ -4009,7 +4050,7 @@
       <c r="C135" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="4">
         <v>43</v>
       </c>
     </row>
@@ -4065,7 +4106,7 @@
       <c r="C139" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="4">
         <v>43</v>
       </c>
     </row>
@@ -4079,7 +4120,7 @@
       <c r="C140" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="4">
         <v>43</v>
       </c>
     </row>
@@ -4093,7 +4134,7 @@
       <c r="C141" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="4">
         <v>43</v>
       </c>
     </row>
@@ -4143,10 +4184,10 @@
       <c r="A145" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="3" t="s">
         <v>422</v>
       </c>
       <c r="D145" s="1">
@@ -4541,7 +4582,7 @@
       <c r="C173" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="4">
         <v>43</v>
       </c>
     </row>
@@ -4643,7 +4684,81 @@
         <v>42</v>
       </c>
     </row>
+    <row r="181" ht="14.25">
+      <c r="A181" t="s">
+        <v>518</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C181" t="s">
+        <v>520</v>
+      </c>
+      <c r="D181">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25">
+      <c r="A182" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D182">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25">
+      <c r="A183" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D183">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25">
+      <c r="A184" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D184">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25">
+      <c r="A185" s="6"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="6"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B8"/>
+    <hyperlink r:id="rId6" ref="B68"/>
+    <hyperlink r:id="rId7" ref="B145"/>
+    <hyperlink r:id="rId8" ref="B181"/>
+    <hyperlink r:id="rId8" ref="B182"/>
+    <hyperlink r:id="rId8" ref="B183"/>
+    <hyperlink r:id="rId8" ref="B184"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -57,7 +57,7 @@
     <t>20-38500752-4</t>
   </si>
   <si>
-    <t xml:space="preserve">DﾴAMICO GERMAN ALEJO</t>
+    <t xml:space="preserve">DAMICO GERMAN ALEJO</t>
   </si>
   <si>
     <t>gerdamico@hotmail.com</t>
@@ -267,7 +267,7 @@
     <t>30-70828637-7</t>
   </si>
   <si>
-    <t xml:space="preserve">LA CASA DEL ARO-CBA SRL</t>
+    <t xml:space="preserve">LA CASA DEL ARO - CBA SRL</t>
   </si>
   <si>
     <t>lacasadelarocordoba@hotmail.com</t>
@@ -303,7 +303,7 @@
     <t>30-71472549-8</t>
   </si>
   <si>
-    <t xml:space="preserve">BIANCHI ELADIO, CRISTIAN Y FABIAN</t>
+    <t xml:space="preserve">BIANCHI ELADIO CRISTIAN Y FABIAN</t>
   </si>
   <si>
     <t>30-71656762-8</t>
@@ -576,7 +576,7 @@
     <t>30-71013582-3</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAMARRE￑O RAMIRO JOSE CARLOS</t>
+    <t xml:space="preserve">ZAMARREÑO RAMIRO JOSE CARLOS</t>
   </si>
   <si>
     <t>gzparts2020@gmail.com</t>
@@ -585,7 +585,7 @@
     <t>20-29091909-7</t>
   </si>
   <si>
-    <t xml:space="preserve">NU￑EZ VICTOR HERNAN</t>
+    <t xml:space="preserve">NUÑEZ VICTOR HERNAN</t>
   </si>
   <si>
     <t>peugeot.norte2715@gmail.com</t>
@@ -603,7 +603,7 @@
     <t>27-22772226-1</t>
   </si>
   <si>
-    <t xml:space="preserve">QUI￑ONES RAMON CESAR</t>
+    <t xml:space="preserve">QUIÑONES RAMON CESAR</t>
   </si>
   <si>
     <t>ramonautopartes@hotmail.com</t>
@@ -828,7 +828,7 @@
     <t>20-14582980-2</t>
   </si>
   <si>
-    <t xml:space="preserve">PI￑EIRO MARIANA CAROLINA</t>
+    <t xml:space="preserve">PIÑEIRO MARIANA CAROLINA</t>
   </si>
   <si>
     <t>maro_508@hotmail.com</t>
@@ -1017,7 +1017,7 @@
     <t>20-23197936-1</t>
   </si>
   <si>
-    <t xml:space="preserve">IBA￑EZ DANIEL GERARDO</t>
+    <t xml:space="preserve">IBAÑEZ DANIEL GERARDO</t>
   </si>
   <si>
     <t>gerardoibanez1973@gmail.com</t>
@@ -1206,7 +1206,7 @@
     <t>20-25858003-7</t>
   </si>
   <si>
-    <t xml:space="preserve">PI￑EIRO EZEQUIEL ENRIQUE</t>
+    <t xml:space="preserve">PIÑEIRO EZEQUIEL ENRIQUE</t>
   </si>
   <si>
     <t>ezequielenripi03@gmail.com</t>
@@ -1215,7 +1215,7 @@
     <t>24-25344884-5</t>
   </si>
   <si>
-    <t xml:space="preserve">LA EL￉CTRIKA SRL</t>
+    <t xml:space="preserve">LA ELECTRIKA SRL</t>
   </si>
   <si>
     <t>la.electrika.srl@gmail.com</t>
@@ -1224,7 +1224,7 @@
     <t>30-70855010-4</t>
   </si>
   <si>
-    <t xml:space="preserve">RUIZ H￉CTOR JOS￉</t>
+    <t xml:space="preserve">RUIZ HECTOR JOSE</t>
   </si>
   <si>
     <t>hectorjruiz@repuestosruiz.arnetbiz.com.ar</t>
@@ -2152,7 +2152,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2185,7 +2185,7 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2238,7 +2238,7 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2599,7 +2599,7 @@
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2655,7 +2655,7 @@
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3089,7 +3089,7 @@
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3103,13 +3103,13 @@
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D68" s="1">
@@ -3131,7 +3131,7 @@
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3481,7 +3481,7 @@
       </c>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -3775,7 +3775,7 @@
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -4069,7 +4069,7 @@
       </c>
     </row>
     <row r="137" ht="14.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="138" ht="14.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -4097,7 +4097,7 @@
       </c>
     </row>
     <row r="139" ht="14.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -4187,7 +4187,7 @@
       <c r="B145" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="1" t="s">
         <v>422</v>
       </c>
       <c r="D145" s="1">

--- a/usuarios db.xlsx
+++ b/usuarios db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t>Nombre</t>
   </si>
@@ -1584,28 +1584,43 @@
     <t xml:space="preserve">USUARIO 35</t>
   </si>
   <si>
+    <t>usuario35@gmail.com</t>
+  </si>
+  <si>
     <t>pass35</t>
   </si>
   <si>
     <t xml:space="preserve">USUARIO 40</t>
   </si>
   <si>
+    <t>usuario40@gmail.com</t>
+  </si>
+  <si>
     <t>pass40</t>
   </si>
   <si>
     <t xml:space="preserve">USUARIO 42</t>
   </si>
   <si>
+    <t>usuario42@gmail.com</t>
+  </si>
+  <si>
     <t>pass42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO 38</t>
+  </si>
+  <si>
+    <t>usuario38@gmail.com</t>
+  </si>
+  <si>
+    <t>pass38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00.0\,\7\4"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11.000000"/>
@@ -1648,11 +1663,9 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2152,7 +2165,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A181" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2221,7 +2234,7 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2599,7 +2612,7 @@
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2655,7 +2668,7 @@
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2832,8 +2845,8 @@
       <c r="C48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="4">
-        <v>43</v>
+      <c r="D48" s="3">
+        <v>43.740000000000002</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -3089,7 +3102,7 @@
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3103,7 +3116,7 @@
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3131,7 +3144,7 @@
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3481,7 +3494,7 @@
       </c>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -3775,7 +3788,7 @@
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -4050,8 +4063,8 @@
       <c r="C135" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D135" s="4">
-        <v>43</v>
+      <c r="D135" s="3">
+        <v>43.740000000000002</v>
       </c>
     </row>
     <row r="136" ht="14.25">
@@ -4069,7 +4082,7 @@
       </c>
     </row>
     <row r="137" ht="14.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -4083,7 +4096,7 @@
       </c>
     </row>
     <row r="138" ht="14.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -4097,7 +4110,7 @@
       </c>
     </row>
     <row r="139" ht="14.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -4106,8 +4119,8 @@
       <c r="C139" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D139" s="4">
-        <v>43</v>
+      <c r="D139" s="3">
+        <v>43.740000000000002</v>
       </c>
     </row>
     <row r="140" ht="14.25">
@@ -4120,8 +4133,8 @@
       <c r="C140" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D140" s="4">
-        <v>43</v>
+      <c r="D140" s="3">
+        <v>43.740000000000002</v>
       </c>
     </row>
     <row r="141" ht="14.25">
@@ -4134,8 +4147,8 @@
       <c r="C141" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D141" s="4">
-        <v>43</v>
+      <c r="D141" s="3">
+        <v>43.740000000000002</v>
       </c>
     </row>
     <row r="142" ht="14.25">
@@ -4582,8 +4595,8 @@
       <c r="C173" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D173" s="4">
-        <v>43</v>
+      <c r="D173" s="3">
+        <v>43.740000000000002</v>
       </c>
     </row>
     <row r="174" ht="14.25">
@@ -4688,7 +4701,7 @@
       <c r="A181" t="s">
         <v>518</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="4" t="s">
         <v>519</v>
       </c>
       <c r="C181" t="s">
@@ -4699,51 +4712,63 @@
       </c>
     </row>
     <row r="182" ht="14.25">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B182" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C182" s="6" t="s">
+      <c r="B182" s="4" t="s">
         <v>522</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="D182">
         <v>35</v>
       </c>
     </row>
     <row r="183" ht="14.25">
-      <c r="A183" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C183" s="6" t="s">
+      <c r="A183" s="5" t="s">
         <v>524</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="D183">
         <v>40</v>
       </c>
     </row>
     <row r="184" ht="14.25">
-      <c r="A184" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>526</v>
+      <c r="A184" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>529</v>
       </c>
       <c r="D184">
         <v>42</v>
       </c>
     </row>
     <row r="185" ht="14.25">
-      <c r="A185" s="6"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="6"/>
+      <c r="A185" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D185">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25">
+      <c r="D186" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4755,9 +4780,10 @@
     <hyperlink r:id="rId6" ref="B68"/>
     <hyperlink r:id="rId7" ref="B145"/>
     <hyperlink r:id="rId8" ref="B181"/>
-    <hyperlink r:id="rId8" ref="B182"/>
-    <hyperlink r:id="rId8" ref="B183"/>
-    <hyperlink r:id="rId8" ref="B184"/>
+    <hyperlink r:id="rId9" ref="B182"/>
+    <hyperlink r:id="rId10" ref="B183"/>
+    <hyperlink r:id="rId11" ref="B184"/>
+    <hyperlink r:id="rId12" ref="B185"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
